--- a/2_20_05_2021/sensor_positions.xlsx
+++ b/2_20_05_2021/sensor_positions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bwedu-my.sharepoint.com/personal/raghavakrishna_devineni_bwedu_de/Documents/6_Recirculation_Teststand/2_20_05_2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="80" documentId="11_F25DC773A252ABDACC1048CD91DD5C365BDE58EB" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{AFCA7D95-5A2B-4F31-A4D5-A2585D5A4986}"/>
+  <xr:revisionPtr revIDLastSave="83" documentId="11_F25DC773A252ABDACC1048CD91DD5C365BDE58EB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{111EFE75-9649-483F-9EED-91B2B1A89BD8}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -449,16 +449,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.90625" customWidth="1"/>
-    <col min="4" max="4" width="20.26953125" customWidth="1"/>
-    <col min="5" max="5" width="16.453125" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" customWidth="1"/>
+    <col min="5" max="5" width="40.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -475,7 +477,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -489,11 +491,11 @@
         <v>22</v>
       </c>
       <c r="E2" t="str">
-        <f>_xlfn.CONCAT(B2,"_",C2,"_",D2)</f>
-        <v>1_indoor_top diffuser</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+        <f>_xlfn.CONCAT(C2,"_",D2,"_",B2,)</f>
+        <v>indoor_top diffuser_1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -507,11 +509,11 @@
         <v>23</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:E18" si="0">_xlfn.CONCAT(B3,"_",C3,"_",D3)</f>
-        <v>1_indoor_centre</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+        <f t="shared" ref="E3:E18" si="0">_xlfn.CONCAT(C3,"_",D3,"_",B3,)</f>
+        <v>indoor_centre_1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -526,10 +528,10 @@
       </c>
       <c r="E4" t="str">
         <f t="shared" si="0"/>
-        <v>1_indoor_aperture</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+        <v>indoor_aperture_1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -544,10 +546,10 @@
       </c>
       <c r="E5" t="str">
         <f t="shared" si="0"/>
-        <v>1_indoor_bottom diffuser</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+        <v>indoor_bottom diffuser_1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -562,10 +564,10 @@
       </c>
       <c r="E6" t="str">
         <f t="shared" si="0"/>
-        <v>1_outdoor_top diffuser</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+        <v>outdoor_top diffuser_1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -580,10 +582,10 @@
       </c>
       <c r="E7" t="str">
         <f t="shared" si="0"/>
-        <v>1_outdoor_aperture</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+        <v>outdoor_aperture_1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -598,10 +600,10 @@
       </c>
       <c r="E8" t="str">
         <f t="shared" si="0"/>
-        <v>1_outdoor_bottom diffuser</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+        <v>outdoor_bottom diffuser_1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -616,10 +618,10 @@
       </c>
       <c r="E9" t="str">
         <f t="shared" si="0"/>
-        <v>2_indoor_top diffuser</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+        <v>indoor_top diffuser_2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -634,10 +636,10 @@
       </c>
       <c r="E10" t="str">
         <f t="shared" si="0"/>
-        <v>2_indoor_centre</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+        <v>indoor_centre_2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -652,10 +654,10 @@
       </c>
       <c r="E11" t="str">
         <f t="shared" si="0"/>
-        <v>2_indoor_aperture</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+        <v>indoor_aperture_2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -670,10 +672,10 @@
       </c>
       <c r="E12" t="str">
         <f t="shared" si="0"/>
-        <v>2_indoor_bottom diffuser</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+        <v>indoor_bottom diffuser_2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -688,10 +690,10 @@
       </c>
       <c r="E13" t="str">
         <f t="shared" si="0"/>
-        <v>2_outdoor_top diffuser</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+        <v>outdoor_top diffuser_2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -706,10 +708,10 @@
       </c>
       <c r="E14" t="str">
         <f t="shared" si="0"/>
-        <v>2_outdoor_aperture</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+        <v>outdoor_aperture_2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -724,10 +726,10 @@
       </c>
       <c r="E15" t="str">
         <f t="shared" si="0"/>
-        <v>2_outdoor_bottom diffuser</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+        <v>outdoor_bottom diffuser_2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -742,10 +744,10 @@
       </c>
       <c r="E16" t="str">
         <f t="shared" si="0"/>
-        <v>0_outdoor_inlet</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+        <v>outdoor_inlet_0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -760,10 +762,10 @@
       </c>
       <c r="E17" t="str">
         <f t="shared" si="0"/>
-        <v>0_no door_air conditioner</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+        <v>no door_air conditioner_0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -778,7 +780,7 @@
       </c>
       <c r="E18" t="str">
         <f t="shared" si="0"/>
-        <v>0_indoor_outlet</v>
+        <v>indoor_outlet_0</v>
       </c>
     </row>
   </sheetData>

--- a/2_20_05_2021/sensor_positions.xlsx
+++ b/2_20_05_2021/sensor_positions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bwedu-my.sharepoint.com/personal/raghavakrishna_devineni_bwedu_de/Documents/6_Recirculation_Teststand/2_20_05_2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="83" documentId="11_F25DC773A252ABDACC1048CD91DD5C365BDE58EB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{111EFE75-9649-483F-9EED-91B2B1A89BD8}"/>
+  <xr:revisionPtr revIDLastSave="90" documentId="11_F25DC773A252ABDACC1048CD91DD5C365BDE58EB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D019E561-6924-4212-9B99-B9C49A306CB9}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="36">
   <si>
     <t>1c</t>
   </si>
@@ -130,16 +130,34 @@
   </si>
   <si>
     <t>sensor</t>
+  </si>
+  <si>
+    <t>1a_50</t>
+  </si>
+  <si>
+    <t>3g</t>
+  </si>
+  <si>
+    <t>No_idea_1</t>
+  </si>
+  <si>
+    <t>No_idea_2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -447,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -783,7 +801,42 @@
         <v>indoor_outlet_0</v>
       </c>
     </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>